--- a/ClueLayout.xlsx
+++ b/ClueLayout.xlsx
@@ -39,9 +39,6 @@
     <t>S</t>
   </si>
   <si>
-    <t>SR</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>Closet</t>
+  </si>
+  <si>
+    <t>SL</t>
   </si>
 </sst>
 </file>
@@ -153,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,6 +181,29 @@
         <fgColor theme="7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -191,25 +214,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
+    <cellStyle name="20% - Accent4" xfId="6" builtinId="42"/>
     <cellStyle name="40% - Accent3" xfId="3" builtinId="39"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="60% - Accent6" xfId="8" builtinId="52"/>
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
+    <cellStyle name="Accent3" xfId="5" builtinId="37"/>
     <cellStyle name="Accent4" xfId="4" builtinId="41"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -513,13 +550,13 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -535,31 +572,31 @@
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>4</v>
@@ -570,14 +607,14 @@
       <c r="Q1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>13</v>
+      <c r="R1" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>6</v>
@@ -609,28 +646,28 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>4</v>
@@ -648,10 +685,10 @@
         <v>4</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>6</v>
@@ -683,28 +720,28 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>4</v>
@@ -722,10 +759,10 @@
         <v>4</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>6</v>
@@ -740,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="Y3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -760,28 +797,28 @@
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>4</v>
@@ -799,10 +836,10 @@
         <v>4</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U4" s="2" t="s">
         <v>6</v>
@@ -818,7 +855,7 @@
       </c>
       <c r="Y4" s="1"/>
       <c r="Z4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -835,31 +872,31 @@
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>4</v>
@@ -877,13 +914,13 @@
         <v>4</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="V5" s="2" t="s">
         <v>6</v>
@@ -898,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Z5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -915,31 +952,31 @@
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="J6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>4</v>
@@ -957,10 +994,10 @@
         <v>4</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>6</v>
@@ -978,69 +1015,69 @@
         <v>2</v>
       </c>
       <c r="Z6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>6</v>
@@ -1058,78 +1095,78 @@
         <v>4</v>
       </c>
       <c r="Z7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X8">
         <v>8</v>
@@ -1138,12 +1175,12 @@
         <v>6</v>
       </c>
       <c r="Z8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2</v>
@@ -1164,66 +1201,66 @@
         <v>2</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="S9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="V9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X9">
         <v>9</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>2</v>
@@ -1244,61 +1281,61 @@
         <v>2</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X10">
         <v>10</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -1324,61 +1361,61 @@
         <v>2</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X11">
         <v>11</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -1401,64 +1438,64 @@
         <v>2</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X12">
         <v>12</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -1480,70 +1517,70 @@
       <c r="F13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>13</v>
+      <c r="G13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X13">
         <v>13</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>2</v>
@@ -1564,71 +1601,71 @@
         <v>2</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X14">
         <v>14</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1644,132 +1681,132 @@
         <v>2</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="W15" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="X15">
         <v>15</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>13</v>
+      <c r="A16" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="J16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>16</v>
+      <c r="M16" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X16">
         <v>16</v>
@@ -1777,73 +1814,73 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X17">
         <v>17</v>
@@ -1851,73 +1888,73 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X18">
         <v>18</v>
@@ -1925,73 +1962,73 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X19">
         <v>19</v>
@@ -1999,73 +2036,73 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X20">
         <v>20</v>
@@ -2073,73 +2110,73 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X21">
         <v>21</v>
@@ -2147,73 +2184,73 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X22">
         <v>22</v>
@@ -2221,73 +2258,73 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X23">
         <v>23</v>
@@ -2295,73 +2332,73 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="S24" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X24">
         <v>24</v>

--- a/ClueLayout.xlsx
+++ b/ClueLayout.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="43">
   <si>
     <t>C</t>
   </si>
@@ -124,6 +124,27 @@
   </si>
   <si>
     <t>SL</t>
+  </si>
+  <si>
+    <t>Number of Doors : 14</t>
+  </si>
+  <si>
+    <t>White: Targets tests</t>
+  </si>
+  <si>
+    <t>Light Blue: walkway adjacency tests</t>
+  </si>
+  <si>
+    <t>Light Purple: adjacency tests, room exits</t>
+  </si>
+  <si>
+    <t>Dark Green: adjacency tests, beside room entrance</t>
+  </si>
+  <si>
+    <t>Orange: adjacency tests, inside rooms</t>
+  </si>
+  <si>
+    <t>All doors are tested for direction in ClueBoardTests</t>
   </si>
 </sst>
 </file>
@@ -188,12 +209,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
@@ -201,6 +216,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -221,29 +242,28 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="8"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="20% - Accent4" xfId="6" builtinId="42"/>
     <cellStyle name="40% - Accent3" xfId="3" builtinId="39"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="60% - Accent6" xfId="8" builtinId="52"/>
+    <cellStyle name="60% - Accent4" xfId="6" builtinId="44"/>
+    <cellStyle name="60% - Accent5" xfId="8" builtinId="48"/>
+    <cellStyle name="60% - Accent6" xfId="7" builtinId="52"/>
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
     <cellStyle name="Accent3" xfId="5" builtinId="37"/>
@@ -547,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:Z33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,7 +891,7 @@
       <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -963,7 +983,7 @@
       <c r="H6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>19</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -1470,7 +1490,7 @@
       <c r="Q12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="R12" t="s">
         <v>9</v>
       </c>
       <c r="S12" s="2" t="s">
@@ -1861,7 +1881,7 @@
       <c r="P17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="Q17" t="s">
         <v>12</v>
       </c>
       <c r="R17" s="3" t="s">
@@ -2127,7 +2147,7 @@
       <c r="F21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" t="s">
         <v>12</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -2385,7 +2405,7 @@
       <c r="R24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S24" s="11" t="s">
+      <c r="S24" s="10" t="s">
         <v>12</v>
       </c>
       <c r="T24" s="2" t="s">
@@ -2473,6 +2493,41 @@
       </c>
       <c r="W25">
         <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
